--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/160.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/160.xlsx
@@ -479,13 +479,13 @@
         <v>-7.089934493181974</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.30457778713315</v>
+        <v>-11.28819931627815</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7204012500268848</v>
+        <v>0.6727583599858437</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.192488574684701</v>
+        <v>-5.157034618589307</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.969277909809549</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.48218796748401</v>
+        <v>-11.47409692432782</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8046240342077087</v>
+        <v>0.7516918538186101</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.080379185451001</v>
+        <v>-5.042437691815679</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.800068075113805</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.0214599215347</v>
+        <v>-12.01686452323726</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8100966167955501</v>
+        <v>0.7598221738833221</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.770628392518604</v>
+        <v>-4.738355866013749</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-6.585211891297942</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.71349286514266</v>
+        <v>-12.705441098895</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8255717187544703</v>
+        <v>0.773778568712602</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.852311269948133</v>
+        <v>-4.824738880163458</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.309029641937288</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.31609228803878</v>
+        <v>-13.30466270765796</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8513242784441455</v>
+        <v>0.8043752804537159</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.12663110803694</v>
+        <v>-4.111430944437696</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.961447879183236</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.58249446626223</v>
+        <v>-13.57465217686003</v>
       </c>
       <c r="F7" t="n">
-        <v>0.97575352465191</v>
+        <v>0.9249553896260129</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.135337489426688</v>
+        <v>-4.121642940654243</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.534211713495358</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.15460191583997</v>
+        <v>-14.15063494807893</v>
       </c>
       <c r="F8" t="n">
-        <v>1.045116545107375</v>
+        <v>1.00222616099788</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.720232935526921</v>
+        <v>-3.712377553821886</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.023908172579819</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.95263014325454</v>
+        <v>-14.94355717738523</v>
       </c>
       <c r="F9" t="n">
-        <v>1.272110891777221</v>
+        <v>1.22484767851859</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.341158399047585</v>
+        <v>-3.339482584283844</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.44075252821094</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.54349886280448</v>
+        <v>-15.5363504654529</v>
       </c>
       <c r="F10" t="n">
-        <v>1.323210149768478</v>
+        <v>1.274048552597797</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.634592999285312</v>
+        <v>-2.634291876319953</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.79891468955154</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.15353471371471</v>
+        <v>-16.13851784235525</v>
       </c>
       <c r="F11" t="n">
-        <v>1.26709653978884</v>
+        <v>1.216782819968087</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.175877984619756</v>
+        <v>-2.183026381971338</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.130037164190358</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.61866495677271</v>
+        <v>-16.60595233071339</v>
       </c>
       <c r="F12" t="n">
-        <v>1.292796730267149</v>
+        <v>1.243255456314057</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.754868802138371</v>
+        <v>-1.762396876272363</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.461843550497528</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.41314517011717</v>
+        <v>-17.40036708254365</v>
       </c>
       <c r="F13" t="n">
-        <v>1.519228107914801</v>
+        <v>1.465130712572789</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.962247695797433</v>
+        <v>-0.9676417245682241</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.834681669450702</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.22604625355994</v>
+        <v>-18.2151141806871</v>
       </c>
       <c r="F14" t="n">
-        <v>1.71954034139321</v>
+        <v>1.66827088346501</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.7761144262966134</v>
+        <v>-0.7792827635843111</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.275722297230648</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.07245053997469</v>
+        <v>-19.05756459164365</v>
       </c>
       <c r="F15" t="n">
-        <v>1.766279862538172</v>
+        <v>1.717314649910116</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.3467392622993652</v>
+        <v>-0.3490565999023508</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.8158163878360992</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.07594936818731</v>
+        <v>-20.05851042080213</v>
       </c>
       <c r="F16" t="n">
-        <v>2.09136174209823</v>
+        <v>2.043103513823628</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2251848950385963</v>
+        <v>0.222186757687841</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.4699962709051374</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.78539507457477</v>
+        <v>-20.76828343476063</v>
       </c>
       <c r="F17" t="n">
-        <v>2.145249660594775</v>
+        <v>2.101652292131827</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3163204151198514</v>
+        <v>0.3145660465390602</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.251637476499723</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.69654079854185</v>
+        <v>-21.67788426699239</v>
       </c>
       <c r="F18" t="n">
-        <v>2.263682632101029</v>
+        <v>2.222022924458656</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8804808368726694</v>
+        <v>0.8763174845690006</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.1601512033795373</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.71133828410688</v>
+        <v>-22.68913373848731</v>
       </c>
       <c r="F19" t="n">
-        <v>2.363655456600449</v>
+        <v>2.320450857222753</v>
       </c>
       <c r="G19" t="n">
-        <v>1.089735113191977</v>
+        <v>1.087810544674243</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.1923133933886869</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.06414966108571</v>
+        <v>-23.04041331603366</v>
       </c>
       <c r="F20" t="n">
-        <v>2.664280914452163</v>
+        <v>2.620552622960798</v>
       </c>
       <c r="G20" t="n">
-        <v>1.702598901516016</v>
+        <v>1.700137548581772</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.3347964313730847</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.02623753540995</v>
+        <v>-24.00159782146183</v>
       </c>
       <c r="F21" t="n">
-        <v>2.777869733906978</v>
+        <v>2.741499316612663</v>
       </c>
       <c r="G21" t="n">
-        <v>1.799167727276588</v>
+        <v>1.800215111503926</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.5746615063830742</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.36452954853731</v>
+        <v>-24.33585740531393</v>
       </c>
       <c r="F22" t="n">
-        <v>2.865116840044241</v>
+        <v>2.824583070446257</v>
       </c>
       <c r="G22" t="n">
-        <v>2.071985133892476</v>
+        <v>2.072456456794777</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.8938846543314042</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.89880024290247</v>
+        <v>-24.8713849607519</v>
       </c>
       <c r="F23" t="n">
-        <v>2.794051820219352</v>
+        <v>2.755822295921512</v>
       </c>
       <c r="G23" t="n">
-        <v>2.625658621069071</v>
+        <v>2.6210239458631</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.278315735683722</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.44431722540867</v>
+        <v>-25.4131706369482</v>
       </c>
       <c r="F24" t="n">
-        <v>2.673681187892522</v>
+        <v>2.635399294383315</v>
       </c>
       <c r="G24" t="n">
-        <v>2.411049592887497</v>
+        <v>2.408666793770303</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.710427837705289</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.58402518903273</v>
+        <v>-25.55624332240259</v>
       </c>
       <c r="F25" t="n">
-        <v>2.792794959146546</v>
+        <v>2.75338712759295</v>
       </c>
       <c r="G25" t="n">
-        <v>2.313799967379156</v>
+        <v>2.313590490533688</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.178055478912218</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.6660353740333</v>
+        <v>-25.63640749270247</v>
       </c>
       <c r="F26" t="n">
-        <v>2.963597142019704</v>
+        <v>2.922775341759202</v>
       </c>
       <c r="G26" t="n">
-        <v>2.31398325961894</v>
+        <v>2.315187751480379</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.664613594463291</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.42109148016745</v>
+        <v>-25.38854401530292</v>
       </c>
       <c r="F27" t="n">
-        <v>2.655770917605041</v>
+        <v>2.618955362014107</v>
       </c>
       <c r="G27" t="n">
-        <v>2.016866538928809</v>
+        <v>2.018437615269816</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.160838631346758</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.52103812006118</v>
+        <v>-25.48829427065403</v>
       </c>
       <c r="F28" t="n">
-        <v>2.924398787311576</v>
+        <v>2.886928616578556</v>
       </c>
       <c r="G28" t="n">
-        <v>1.978767937659386</v>
+        <v>1.973557201128379</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.650769211795563</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.74907985095837</v>
+        <v>-25.70738086640747</v>
       </c>
       <c r="F29" t="n">
-        <v>2.742494331628635</v>
+        <v>2.70992068215842</v>
       </c>
       <c r="G29" t="n">
-        <v>1.885157972341045</v>
+        <v>1.877852467355361</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.125614355408665</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.38515310886691</v>
+        <v>-25.35617984267817</v>
       </c>
       <c r="F30" t="n">
-        <v>2.720656370488635</v>
+        <v>2.685123860576191</v>
       </c>
       <c r="G30" t="n">
-        <v>2.033284286692333</v>
+        <v>2.016211923786722</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.567203817184816</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.61054701123619</v>
+        <v>-24.5814035451105</v>
       </c>
       <c r="F31" t="n">
-        <v>2.629088804413603</v>
+        <v>2.596462785732022</v>
       </c>
       <c r="G31" t="n">
-        <v>1.507811619836816</v>
+        <v>1.484376397750126</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.965986858927417</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.74836968325104</v>
+        <v>-24.71193380444251</v>
       </c>
       <c r="F32" t="n">
-        <v>2.610628657406769</v>
+        <v>2.576457746989864</v>
       </c>
       <c r="G32" t="n">
-        <v>1.63148151247976</v>
+        <v>1.599562478151632</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.304480552599805</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.17275349651171</v>
+        <v>-24.13829455543229</v>
       </c>
       <c r="F33" t="n">
-        <v>2.667056482654609</v>
+        <v>2.634325725550294</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8593760446918071</v>
+        <v>0.827928333265981</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.57736173796252</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.52131978401594</v>
+        <v>-23.4906183338521</v>
       </c>
       <c r="F34" t="n">
-        <v>2.646711044038566</v>
+        <v>2.614085025356985</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7917281159086085</v>
+        <v>0.7598352661861637</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.77621828161013</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.87556813095349</v>
+        <v>-22.84853252558533</v>
       </c>
       <c r="F35" t="n">
-        <v>2.522334167042169</v>
+        <v>2.49093882482771</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8508136786333181</v>
+        <v>0.8177425216551182</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.903406448909063</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.07231607470507</v>
+        <v>-22.04500553097723</v>
       </c>
       <c r="F36" t="n">
-        <v>2.371720315150952</v>
+        <v>2.343912263915126</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8782682376924178</v>
+        <v>0.8397244981263762</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.961910503316299</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.11508544473511</v>
+        <v>-21.08943762346817</v>
       </c>
       <c r="F37" t="n">
-        <v>2.41091866985908</v>
+        <v>2.386252771305268</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8149669534526722</v>
+        <v>0.7794082589345442</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.960936113955712</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.9999910104535</v>
+        <v>-20.97078208281361</v>
       </c>
       <c r="F38" t="n">
-        <v>2.243101532033835</v>
+        <v>2.214141358147937</v>
       </c>
       <c r="G38" t="n">
-        <v>0.515454341342505</v>
+        <v>0.4789399087169309</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.913396796534283</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.13737845312069</v>
+        <v>-20.10957040188487</v>
       </c>
       <c r="F39" t="n">
-        <v>2.483947535110228</v>
+        <v>2.458417544568862</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3487762338644904</v>
+        <v>0.3126414780213264</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.83372711227415</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.6201670293583</v>
+        <v>-19.59077480947863</v>
       </c>
       <c r="F40" t="n">
-        <v>2.326368578107213</v>
+        <v>2.296177727754193</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01958337121213012</v>
+        <v>-0.009887402484595261</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.740880097222265</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.65206978802971</v>
+        <v>-18.62736461256737</v>
       </c>
       <c r="F41" t="n">
-        <v>2.540794314049002</v>
+        <v>2.51377180098368</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.0422515751093421</v>
+        <v>-0.07059641076167904</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.650245816512339</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.40332912633976</v>
+        <v>-18.3692367697399</v>
       </c>
       <c r="F42" t="n">
-        <v>2.545900312157276</v>
+        <v>2.517882784075982</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.2924454824147273</v>
+        <v>-0.3210914410324239</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.580365248643753</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.46962536457638</v>
+        <v>-17.4453784197135</v>
       </c>
       <c r="F43" t="n">
-        <v>2.905257840556973</v>
+        <v>2.871060745534384</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.3046606009660577</v>
+        <v>-0.327729238573179</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.541632670508326</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.0204415463796</v>
+        <v>-16.99197888000169</v>
       </c>
       <c r="F44" t="n">
-        <v>2.837675373287983</v>
+        <v>2.807484522934963</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.632845356299605</v>
+        <v>-0.6579302085443521</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.546862306245325</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.29023144768517</v>
+        <v>-16.26055119714298</v>
       </c>
       <c r="F45" t="n">
-        <v>2.781064255800359</v>
+        <v>2.752156451125828</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.6780007088007183</v>
+        <v>-0.7011871771334152</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.59832035221467</v>
       </c>
       <c r="E46" t="n">
-        <v>-15.81395965490886</v>
+        <v>-15.78570646537641</v>
       </c>
       <c r="F46" t="n">
-        <v>2.951316561954165</v>
+        <v>2.917538420622512</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.8424662170984811</v>
+        <v>-0.8629294864400989</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.700802654145192</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.06997645362493</v>
+        <v>-15.04825632321051</v>
       </c>
       <c r="F47" t="n">
-        <v>2.926179340498051</v>
+        <v>2.893029629702801</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.175809339751668</v>
+        <v>-1.193536317799366</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.848351898390361</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.42203838598791</v>
+        <v>-14.39648221084086</v>
       </c>
       <c r="F48" t="n">
-        <v>2.790621636874819</v>
+        <v>2.756424541852231</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.214693479191595</v>
+        <v>-1.232669210993285</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.03769342555284</v>
       </c>
       <c r="E49" t="n">
-        <v>-13.80689653696941</v>
+        <v>-13.78672129829031</v>
       </c>
       <c r="F49" t="n">
-        <v>3.196404471151277</v>
+        <v>3.157703623951135</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.40140281001745</v>
+        <v>-1.41497952806432</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.255961812624847</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.20738689754393</v>
+        <v>-13.19222601085321</v>
       </c>
       <c r="F50" t="n">
-        <v>3.249166451603433</v>
+        <v>3.212219972984082</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.352633981932021</v>
+        <v>-1.368567314490401</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.493327815321433</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.35447573661685</v>
+        <v>-12.33807108115616</v>
       </c>
       <c r="F51" t="n">
-        <v>3.238954455386887</v>
+        <v>3.198158839732069</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.359716917769395</v>
+        <v>-1.372992512850905</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.733965955387213</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.34855801573239</v>
+        <v>-12.32792454645383</v>
       </c>
       <c r="F52" t="n">
-        <v>3.201746130710701</v>
+        <v>3.161055253478617</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.453837482898563</v>
+        <v>-1.467898616150577</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.96588655089177</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.53477974799922</v>
+        <v>-11.52201475272854</v>
       </c>
       <c r="F53" t="n">
-        <v>3.481973780735006</v>
+        <v>3.438402596877742</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.60369198122496</v>
+        <v>-1.614349115738125</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.175265738675274</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.30134398833124</v>
+        <v>-11.28580342485811</v>
       </c>
       <c r="F54" t="n">
-        <v>3.135001570823582</v>
+        <v>3.093682263055094</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.665003235432763</v>
+        <v>-1.677833692217655</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.352025408290874</v>
       </c>
       <c r="E55" t="n">
-        <v>-10.72172155692235</v>
+        <v>-10.70412550190307</v>
       </c>
       <c r="F55" t="n">
-        <v>3.022145920327903</v>
+        <v>2.97600864511366</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.050846492481272</v>
+        <v>-2.064750518099185</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.487570510762561</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.16017959573787</v>
+        <v>-10.14825250784906</v>
       </c>
       <c r="F56" t="n">
-        <v>3.247254975388541</v>
+        <v>3.200096500552644</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.332409557395433</v>
+        <v>-2.342451353675037</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.574341489045238</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.572518490384157</v>
+        <v>-9.55653278861441</v>
       </c>
       <c r="F57" t="n">
-        <v>3.275848564794871</v>
+        <v>3.225417014248542</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.828332896737175</v>
+        <v>-2.832522433646527</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.609743910253313</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.445405322093839</v>
+        <v>-9.426251283036393</v>
       </c>
       <c r="F58" t="n">
-        <v>3.240918300813146</v>
+        <v>3.186401951780198</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.636975798402506</v>
+        <v>-2.648902886291319</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.590675408135561</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.844534083172821</v>
+        <v>-8.827435535661527</v>
       </c>
       <c r="F59" t="n">
-        <v>3.34547343130717</v>
+        <v>3.294518188647172</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.01466255078062</v>
+        <v>-3.020396979425296</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.521189288983894</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.734519462393797</v>
+        <v>-8.715260684913618</v>
       </c>
       <c r="F60" t="n">
-        <v>3.140081384326172</v>
+        <v>3.090016418259411</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.717074507188186</v>
+        <v>-2.729643117916244</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.402267210481051</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.302918606913455</v>
+        <v>-8.280465307539895</v>
       </c>
       <c r="F61" t="n">
-        <v>3.205254867872284</v>
+        <v>3.155504117073725</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.17933753592385</v>
+        <v>-3.19351649990144</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.242044375081012</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.933480005325629</v>
+        <v>-7.908656999137716</v>
       </c>
       <c r="F62" t="n">
-        <v>3.008948879063443</v>
+        <v>2.962418834763949</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.305534243015248</v>
+        <v>-3.318993130336542</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.045415595938993</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.747700228001536</v>
+        <v>-7.723728221498336</v>
       </c>
       <c r="F63" t="n">
-        <v>3.307689045305949</v>
+        <v>3.255791156841346</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.281955005597299</v>
+        <v>-3.297024246168126</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.824109491487209</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.485749432744281</v>
+        <v>-7.463335410279246</v>
       </c>
       <c r="F64" t="n">
-        <v>3.164878205908401</v>
+        <v>3.113922963248403</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.616437158597717</v>
+        <v>-3.629634199862177</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.584322953269038</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.202484368460696</v>
+        <v>-7.179088423282531</v>
       </c>
       <c r="F65" t="n">
-        <v>3.269197674951274</v>
+        <v>3.21546686408883</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.648028885354802</v>
+        <v>-3.665219078985988</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.334718247830196</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.986055510184122</v>
+        <v>-6.96571007156808</v>
       </c>
       <c r="F66" t="n">
-        <v>3.113137425077899</v>
+        <v>3.062862982165671</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.706145617669224</v>
+        <v>-3.723270349786202</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.078501183182559</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.092639947618614</v>
+        <v>-7.070409217393363</v>
       </c>
       <c r="F67" t="n">
-        <v>3.114315732333655</v>
+        <v>3.062470213080419</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.599967041622826</v>
+        <v>-3.612378544716782</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.81890432323363</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.780231417209347</v>
+        <v>-6.757895948561362</v>
       </c>
       <c r="F68" t="n">
-        <v>3.080642329424735</v>
+        <v>3.028744440960133</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.572145898084158</v>
+        <v>-3.589663399286387</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.556621952387771</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.963916426078764</v>
+        <v>-6.940808511563117</v>
       </c>
       <c r="F69" t="n">
-        <v>2.833171621110429</v>
+        <v>2.78706053050187</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.612915329133293</v>
+        <v>-3.6310219839634</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.290217650973526</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.711667027227227</v>
+        <v>-6.68886023567694</v>
       </c>
       <c r="F70" t="n">
-        <v>2.902325164720426</v>
+        <v>2.853229029063953</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.423391153196466</v>
+        <v>-3.439795808657149</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.020541889190388</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.638009731439676</v>
+        <v>-6.611327618248239</v>
       </c>
       <c r="F71" t="n">
-        <v>2.801383509810718</v>
+        <v>2.756555464880648</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.418586278053553</v>
+        <v>-3.434179210738048</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.744286290010544</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.813485866427331</v>
+        <v>-6.784892277021001</v>
       </c>
       <c r="F72" t="n">
-        <v>2.95613452939992</v>
+        <v>2.910363838665246</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.297417015253378</v>
+        <v>-3.31222440976737</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.465244415501782</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.961887119138296</v>
+        <v>-6.931028561340347</v>
       </c>
       <c r="F73" t="n">
-        <v>2.700232378055543</v>
+        <v>2.658022793693818</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.220709212903705</v>
+        <v>-3.236027207228525</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.180889563216454</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.233945172189364</v>
+        <v>-7.203453198870983</v>
       </c>
       <c r="F74" t="n">
-        <v>2.837020758145897</v>
+        <v>2.793135359020431</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.191408639143922</v>
+        <v>-3.206962294919892</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.898113793669986</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.40663264667173</v>
+        <v>-7.373338920545221</v>
       </c>
       <c r="F75" t="n">
-        <v>2.385860002220016</v>
+        <v>2.342393556785486</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.925071922434689</v>
+        <v>-2.9423013929744</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.616815061980252</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.842619423604051</v>
+        <v>-7.810517097036138</v>
       </c>
       <c r="F76" t="n">
-        <v>2.638672370093746</v>
+        <v>2.595153555447849</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.853601041221706</v>
+        <v>-2.869704573717029</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.345561308758722</v>
       </c>
       <c r="E77" t="n">
-        <v>-8.159034198682885</v>
+        <v>-8.128175640884937</v>
       </c>
       <c r="F77" t="n">
-        <v>2.479339044509941</v>
+        <v>2.438857644123323</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.727862564729769</v>
+        <v>-2.741766590347682</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.086776123785462</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.505901670171577</v>
+        <v>-8.473969543540607</v>
       </c>
       <c r="F78" t="n">
-        <v>2.371510838305484</v>
+        <v>2.332600514259874</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.567429485707258</v>
+        <v>-2.581909572650206</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.849866386218361</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.961919670451737</v>
+        <v>-8.931794281612925</v>
       </c>
       <c r="F79" t="n">
-        <v>2.492352793534616</v>
+        <v>2.447943702295481</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.282842098836658</v>
+        <v>-2.295764201741441</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.638879499090148</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.353418802327871</v>
+        <v>-9.323948028631147</v>
       </c>
       <c r="F80" t="n">
-        <v>2.196676226157074</v>
+        <v>2.154859410880602</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.726956012479811</v>
+        <v>-1.740990961126141</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.463028935079625</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.984192860939391</v>
+        <v>-9.956921594120077</v>
       </c>
       <c r="F81" t="n">
-        <v>2.340560634387644</v>
+        <v>2.299084218985056</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.833605911428511</v>
+        <v>-1.84982727464941</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.326431421252824</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.63666086535965</v>
+        <v>-10.60908847557498</v>
       </c>
       <c r="F82" t="n">
-        <v>2.32217904119786</v>
+        <v>2.280493148949805</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.60445133478978</v>
+        <v>-1.620751251827729</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.236817581095135</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.23264867532071</v>
+        <v>-11.20577017758664</v>
       </c>
       <c r="F83" t="n">
-        <v>1.991074702330608</v>
+        <v>1.957165637970538</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.195866747705193</v>
+        <v>-1.216984632188897</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.196604685307151</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.103823598712</v>
+        <v>-12.08038837662531</v>
       </c>
       <c r="F84" t="n">
-        <v>2.057295570104059</v>
+        <v>2.018961307383485</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.051222985909803</v>
+        <v>-1.070913809383759</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.210146623854531</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.72610075277924</v>
+        <v>-12.70614808324845</v>
       </c>
       <c r="F85" t="n">
-        <v>1.977799107249098</v>
+        <v>1.940014721247877</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.7528232195411827</v>
+        <v>-0.7712964588508582</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.276073037326497</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.50782906315586</v>
+        <v>-13.49474985261698</v>
       </c>
       <c r="F86" t="n">
-        <v>1.946770349514207</v>
+        <v>1.90696974887536</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.5520134785547883</v>
+        <v>-0.5685883339524135</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.394284004587195</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.32598016003817</v>
+        <v>-14.31295331871065</v>
       </c>
       <c r="F87" t="n">
-        <v>1.967744218666653</v>
+        <v>1.925037126796942</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1604357928616033</v>
+        <v>-0.1780187555780414</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.558022363853183</v>
       </c>
       <c r="E88" t="n">
-        <v>-15.51673819579599</v>
+        <v>-15.50549190765495</v>
       </c>
       <c r="F88" t="n">
-        <v>1.987696888197443</v>
+        <v>1.944832688693632</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1175530733767663</v>
+        <v>0.09909292636993253</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.762054809059175</v>
       </c>
       <c r="E89" t="n">
-        <v>-16.43009651894333</v>
+        <v>-16.42728167383236</v>
       </c>
       <c r="F89" t="n">
-        <v>1.721425633002418</v>
+        <v>1.684007831480765</v>
       </c>
       <c r="G89" t="n">
-        <v>0.296839068491363</v>
+        <v>0.2790204443237739</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.995092900527203</v>
       </c>
       <c r="E90" t="n">
-        <v>-17.82366741802234</v>
+        <v>-17.82457078691841</v>
       </c>
       <c r="F90" t="n">
-        <v>1.686573922837743</v>
+        <v>1.646328183902278</v>
       </c>
       <c r="G90" t="n">
-        <v>0.7607386350822428</v>
+        <v>0.7418988112929991</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.248584789967835</v>
       </c>
       <c r="E91" t="n">
-        <v>-18.95129436947736</v>
+        <v>-18.95807618234937</v>
       </c>
       <c r="F91" t="n">
-        <v>1.370368624604376</v>
+        <v>1.331432115953082</v>
       </c>
       <c r="G91" t="n">
-        <v>0.7341612603135389</v>
+        <v>0.7125458683218492</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.508634599131639</v>
       </c>
       <c r="E92" t="n">
-        <v>-20.21678326985576</v>
+        <v>-20.23080512619925</v>
       </c>
       <c r="F92" t="n">
-        <v>1.152656720649313</v>
+        <v>1.118603640957983</v>
       </c>
       <c r="G92" t="n">
-        <v>1.247929408428553</v>
+        <v>1.2177909272869</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.764977819590816</v>
       </c>
       <c r="E93" t="n">
-        <v>-21.79515202354573</v>
+        <v>-21.81078423313875</v>
       </c>
       <c r="F93" t="n">
-        <v>1.016470586489678</v>
+        <v>0.9801787230124135</v>
       </c>
       <c r="G93" t="n">
-        <v>1.243072164074273</v>
+        <v>1.214661866907727</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.003701586702181</v>
       </c>
       <c r="E94" t="n">
-        <v>-23.40714181093325</v>
+        <v>-23.42839061844537</v>
       </c>
       <c r="F94" t="n">
-        <v>1.121510132188846</v>
+        <v>1.084079238364352</v>
       </c>
       <c r="G94" t="n">
-        <v>1.4162178691561</v>
+        <v>1.385162926815526</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.217326084282998</v>
       </c>
       <c r="E95" t="n">
-        <v>-25.04738478785322</v>
+        <v>-25.0781909764398</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3904883107182296</v>
+        <v>0.3543797394807491</v>
       </c>
       <c r="G95" t="n">
-        <v>1.401868705241568</v>
+        <v>1.365917241638189</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.396626028564389</v>
       </c>
       <c r="E96" t="n">
-        <v>-26.80845662769947</v>
+        <v>-26.83822852436156</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5759407804712794</v>
+        <v>0.5294892899888353</v>
       </c>
       <c r="G96" t="n">
-        <v>1.11061733622453</v>
+        <v>1.074993180192194</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.539088211630541</v>
       </c>
       <c r="E97" t="n">
-        <v>-28.7021796799381</v>
+        <v>-28.73974149679101</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.07168307189754231</v>
+        <v>-0.1093627194760299</v>
       </c>
       <c r="G97" t="n">
-        <v>1.293700099163228</v>
+        <v>1.257054743509236</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.640822632528039</v>
       </c>
       <c r="E98" t="n">
-        <v>-30.91750205918089</v>
+        <v>-30.96007822802218</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.328449315229474</v>
+        <v>-0.3739843445129972</v>
       </c>
       <c r="G98" t="n">
-        <v>1.178605664881614</v>
+        <v>1.135754557680644</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.703921864448078</v>
       </c>
       <c r="E99" t="n">
-        <v>-33.07280932219719</v>
+        <v>-33.12568913337493</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.3052104776854102</v>
+        <v>-0.3481925079147969</v>
       </c>
       <c r="G99" t="n">
-        <v>0.8055535877094712</v>
+        <v>0.7594817740094372</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.725574847755903</v>
       </c>
       <c r="E100" t="n">
-        <v>-35.02079996971478</v>
+        <v>-35.07902144045193</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3739581599073138</v>
+        <v>-0.4168354517139666</v>
       </c>
       <c r="G100" t="n">
-        <v>0.6184645801012056</v>
+        <v>0.5731652122688334</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.711514812324429</v>
       </c>
       <c r="E101" t="n">
-        <v>-36.80458695499143</v>
+        <v>-36.87719686655164</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.7335513497581619</v>
+        <v>-0.7764417338676566</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0454406693245391</v>
+        <v>0.0008351935427783888</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.652608846211004</v>
       </c>
       <c r="E102" t="n">
-        <v>-39.09888210497551</v>
+        <v>-39.17729190669461</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.6303709110625189</v>
+        <v>-0.6810904922713656</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.494865576650654</v>
+        <v>-0.5377035915487817</v>
       </c>
     </row>
   </sheetData>
